--- a/Stakeholderanalyse - v2.xlsx
+++ b/Stakeholderanalyse - v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\EPWS2223HausenKochZimmer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF71DA13-6A0C-4BF4-9BC5-08935390992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019FF838-BD06-44DD-B0B1-7F9542B0E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-105" windowWidth="21600" windowHeight="11385" xr2:uid="{1EC1A410-8258-43E6-AE3C-02DE8233B07A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EC1A410-8258-43E6-AE3C-02DE8233B07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Bezeichnung (E/O)</t>
   </si>
@@ -60,69 +60,12 @@
     <t>Externe Experten</t>
   </si>
   <si>
-    <t>Externe Experten müssen separat konzepierte Zugänge zu dem System erhalten</t>
-  </si>
-  <si>
-    <t>Externe Experten müssen ihr Resultat der Verifikation dem System mittteilen können</t>
-  </si>
-  <si>
-    <t>Die Experten müssen die Uploads der User sehen können, bzw. sie müssen den Experten zugewiesen werden können.</t>
-  </si>
-  <si>
-    <t>Das Uploaden von selbst digitalisierten Artefakte sollte einfach durchführbar sein</t>
-  </si>
-  <si>
-    <t>Das Uploaden von alles gängigen Bild Formate sollte durchführbar sein</t>
-  </si>
-  <si>
-    <t>Das Uploaden von Bildern mit kontext sowie Beschreibung sollte gehändelt werden</t>
-  </si>
-  <si>
-    <t>Das Uploaden von Freitexten sollte möglich sein</t>
-  </si>
-  <si>
-    <t>Das Uploaden von meheren Bildern und Freitexten sollte gehändelt werden</t>
-  </si>
-  <si>
-    <t>Das System  muss das Anlegen von User Profilen ermöglichen</t>
-  </si>
-  <si>
-    <t>Das System muss die spezifizierung der Stadt im User Profil ermöglichen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menschen mit historischen Artefakten aus der Kleinstadt </t>
-  </si>
-  <si>
-    <t>Das System muss das Vernetzten der Menschen mit historischen Artefakten aus der Kleinstadt  ermöglichen</t>
-  </si>
-  <si>
-    <t>Das System muss eine Interaktion der Menschen mit historischen Artefakten aus der Kleinstadt/aller User ermöglichen</t>
-  </si>
-  <si>
     <t>Community Moderatoren</t>
   </si>
   <si>
-    <t>Das System muss Zugänge und Rechte verteilen können.</t>
-  </si>
-  <si>
-    <t>Die Community Moderatoren müssen ihre Rechte ausüben können</t>
-  </si>
-  <si>
-    <t>System Morderatoren</t>
-  </si>
-  <si>
-    <t>Die System Moderatoren müssen ihre Rechte ausüben können</t>
-  </si>
-  <si>
     <t>Administratoren</t>
   </si>
   <si>
-    <t>Das System muss ermöglichen, dass Administratoren  den System Moderatoren ihre Rechte und/oder Zugänge entziehen.</t>
-  </si>
-  <si>
-    <t>Das System muss ermöglichen, dass System Moderatoren  den Community Moderatoren ihre Rechte und/oder Zugänge entziehen.</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -132,7 +75,143 @@
     <t xml:space="preserve">System </t>
   </si>
   <si>
-    <t>Muss Administratoren haben</t>
+    <t>Das Uploaden von selbst digitalisierten Artefakte sollte einfach durchführbar sein
+Das Uploaden von alles gängigen Bild Formate sollte durchführbar sein
+Das Uploaden von Bildern mit kontext sowie Beschreibung sollte gehändelt werden
+Das Uploaden von Freitexten sollte möglich sein
+Das Uploaden von meheren Bildern und Freitexten sollte gehändelt werden
+Das System  muss das Anlegen von User Profilen ermöglichen
+Das System muss die spezifizierung der Stadt im User Profil ermöglichen
+Das System muss das Vernetzten der Menschen mit historischen Artefakten aus der Kleinstadt  ermöglichen
+Das System muss eine Interaktion der Menschen mit historischen Artefakten aus der Kleinstadt/aller User ermöglichen</t>
+  </si>
+  <si>
+    <t>Externe Experten müssen separat konzepierte Zugänge zu dem System erhalten
+Externe Experten müssen ihr Resultat der Verifikation dem System mittteilen können
+Die Experten müssen die Uploads der User sehen können, bzw. sie müssen den Experten zugewiesen werden können.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Das System muss Zugänge und Rechte verteilen können.
+Die Community Moderatoren müssen ihre Rechte ausüben können
+Die Community Moderatoren brauchen erweiterte Funktionen an das System
+Die Community Moderatoren brauchen erweiterte </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ansichten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> im System</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Das System muss ermöglichen, dass Administratoren  den System Moderatoren ihre Rechte und/oder Zugänge entziehen.
+Die Administratoren müssen ihre Rechte ausüben können
+Das System muss ermöglichen, dass Administratoren  den Community Moderatoren und System Moderatoren ihre Rechte und/oder Zugänge entziehen.
+Die Administratoren brauchen erweiterte Funktionen an das System
+Die Administratoren brauchen erweiterte </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ansichten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> im System</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Das System muss Zugänge und Rechte verteilen können.
+Die System Moderatoren müssen ihre Rechte ausüben können
+Das System muss ermöglichen, dass System Moderatoren  den Community Moderatoren ihre Rechte und/oder Zugänge entziehen.
+Die System Moderatoren brauchen erweiterte Funktionen an das System
+Die System Moderatoren brauchen erweiterte </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ansichten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> im System</t>
+    </r>
+  </si>
+  <si>
+    <t>System Moderatoren</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Muss Administratoren haben
+Muss Comunity Moderatoren haben
+Muss System Moderatoren haben
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muss Online Verfügbar sein</t>
+    </r>
+  </si>
+  <si>
+    <t>Bibliotheksmitarbeiter</t>
+  </si>
+  <si>
+    <t>Archivmitarbeiter</t>
+  </si>
+  <si>
+    <t>Landes/Stadtarchiv</t>
+  </si>
+  <si>
+    <t>Sonstige Experten</t>
+  </si>
+  <si>
+    <t>Supporter 
+für User</t>
   </si>
 </sst>
 </file>
@@ -246,10 +325,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0898466-D973-4392-B5CB-258D34DDA08A}">
-  <dimension ref="B2:E29"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +659,7 @@
     <col min="5" max="5" width="137.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,251 +673,120 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>4</v>
+      <c r="E9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>29</v>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>21</v>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>21</v>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stakeholderanalyse - v2.xlsx
+++ b/Stakeholderanalyse - v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019FF838-BD06-44DD-B0B1-7F9542B0E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B347A9F-6205-4CAA-819C-F630D0627A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EC1A410-8258-43E6-AE3C-02DE8233B07A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Bezeichnung (E/O)</t>
   </si>
@@ -75,127 +75,7 @@
     <t xml:space="preserve">System </t>
   </si>
   <si>
-    <t>Das Uploaden von selbst digitalisierten Artefakte sollte einfach durchführbar sein
-Das Uploaden von alles gängigen Bild Formate sollte durchführbar sein
-Das Uploaden von Bildern mit kontext sowie Beschreibung sollte gehändelt werden
-Das Uploaden von Freitexten sollte möglich sein
-Das Uploaden von meheren Bildern und Freitexten sollte gehändelt werden
-Das System  muss das Anlegen von User Profilen ermöglichen
-Das System muss die spezifizierung der Stadt im User Profil ermöglichen
-Das System muss das Vernetzten der Menschen mit historischen Artefakten aus der Kleinstadt  ermöglichen
-Das System muss eine Interaktion der Menschen mit historischen Artefakten aus der Kleinstadt/aller User ermöglichen</t>
-  </si>
-  <si>
-    <t>Externe Experten müssen separat konzepierte Zugänge zu dem System erhalten
-Externe Experten müssen ihr Resultat der Verifikation dem System mittteilen können
-Die Experten müssen die Uploads der User sehen können, bzw. sie müssen den Experten zugewiesen werden können.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Das System muss Zugänge und Rechte verteilen können.
-Die Community Moderatoren müssen ihre Rechte ausüben können
-Die Community Moderatoren brauchen erweiterte Funktionen an das System
-Die Community Moderatoren brauchen erweiterte </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ansichten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> im System</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Das System muss ermöglichen, dass Administratoren  den System Moderatoren ihre Rechte und/oder Zugänge entziehen.
-Die Administratoren müssen ihre Rechte ausüben können
-Das System muss ermöglichen, dass Administratoren  den Community Moderatoren und System Moderatoren ihre Rechte und/oder Zugänge entziehen.
-Die Administratoren brauchen erweiterte Funktionen an das System
-Die Administratoren brauchen erweiterte </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ansichten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> im System</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Das System muss Zugänge und Rechte verteilen können.
-Die System Moderatoren müssen ihre Rechte ausüben können
-Das System muss ermöglichen, dass System Moderatoren  den Community Moderatoren ihre Rechte und/oder Zugänge entziehen.
-Die System Moderatoren brauchen erweiterte Funktionen an das System
-Die System Moderatoren brauchen erweiterte </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ansichten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> im System</t>
-    </r>
-  </si>
-  <si>
     <t>System Moderatoren</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Muss Administratoren haben
-Muss Comunity Moderatoren haben
-Muss System Moderatoren haben
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Muss Online Verfügbar sein</t>
-    </r>
   </si>
   <si>
     <t>Bibliotheksmitarbeiter</t>
@@ -212,13 +92,145 @@
   <si>
     <t>Supporter 
 für User</t>
+  </si>
+  <si>
+    <t>Das System muss eine Interaktion der Menschen mit historischen Artefakten aus der Kleinstadt/aller User ermöglichen</t>
+  </si>
+  <si>
+    <t>Das System muss das Vernetzten der Menschen mit historischen Artefakten aus der Kleinstadt  ermöglichen</t>
+  </si>
+  <si>
+    <t>Das System muss die spezifizierung der Stadt im User Profil ermöglichen</t>
+  </si>
+  <si>
+    <t>Das System  muss das Anlegen von User Profilen ermöglichen</t>
+  </si>
+  <si>
+    <t>Das Uploaden von meheren Bildern und Freitexten sollte gehändelt werden</t>
+  </si>
+  <si>
+    <t>Das Uploaden von Freitexten sollte möglich sein</t>
+  </si>
+  <si>
+    <t>Das Uploaden von Bildern mit kontext sowie Beschreibung sollte gehändelt werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Uploaden von selbst digitalisierten Artefakte sollte einfach durchführbar sein
+</t>
+  </si>
+  <si>
+    <t>Das Uploaden von alles gängigen Bild Formate sollte durchführbar sein</t>
+  </si>
+  <si>
+    <t>Die Community Moderatoren brauchen erweiterte Ansichten im System</t>
+  </si>
+  <si>
+    <t>Die Community Moderatoren brauchen erweiterte Funktionen an das System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das System muss Zugänge und Rechte verteilen können.
+</t>
+  </si>
+  <si>
+    <t>Die Community Moderatoren müssen ihre Rechte ausüben können</t>
+  </si>
+  <si>
+    <t>Die System Moderatoren brauchen erweiterte Ansichten im System</t>
+  </si>
+  <si>
+    <t>Die System Moderatoren brauchen erweiterte Funktionen an das System</t>
+  </si>
+  <si>
+    <t>Das System muss ermöglichen, dass System Moderatoren  den Community Moderatoren ihre Rechte und/oder Zugänge entziehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das System muss Zugänge und Rechte verteilen können.
+</t>
+  </si>
+  <si>
+    <t>Die System Moderatoren müssen ihre Rechte ausüben können</t>
+  </si>
+  <si>
+    <t>Die Administratoren brauchen erweiterte Ansichten im System</t>
+  </si>
+  <si>
+    <t>Die Administratoren brauchen erweiterte Funktionen an das System</t>
+  </si>
+  <si>
+    <t>Das System muss ermöglichen, dass Administratoren  den Community Moderatoren und System Moderatoren ihre Rechte und/oder Zugänge entziehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das System muss ermöglichen, dass Administratoren  den System Moderatoren ihre Rechte und/oder Zugänge entziehen.
+</t>
+  </si>
+  <si>
+    <t>Die Administratoren müssen ihre Rechte ausüben können</t>
+  </si>
+  <si>
+    <t>Muss Online Verfügbar sein</t>
+  </si>
+  <si>
+    <t>Muss System Moderatoren haben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muss Administratoren haben
+</t>
+  </si>
+  <si>
+    <t>Muss Comunity Moderatoren haben</t>
+  </si>
+  <si>
+    <t>Die Experten müssen die Uploads der User sehen können, bzw. sie müssen den Experten zugewiesen werden können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externe Experten müssen separat konzepierte Zugänge zu dem System erhalten
+</t>
+  </si>
+  <si>
+    <t>Externe Experten müssen ihr Resultat der Verifikation dem System mittteilen können</t>
+  </si>
+  <si>
+    <t>Anspruch</t>
+  </si>
+  <si>
+    <t>Anteil</t>
+  </si>
+  <si>
+    <t>Anrecht</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Benutzerrechte</t>
+  </si>
+  <si>
+    <t>Systembetrieb</t>
+  </si>
+  <si>
+    <t>UserInterface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wartung, updates, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmelden, Persöhnliche Nachrichten, user Profil?, Interaktion?, </t>
+  </si>
+  <si>
+    <t>Positives feedback für upload Interaktion mit anderen Anzeige von anderem upload Hilfestellungen und Anleitung Persönliche Nachrichten Anmelden und Profil ausprägen</t>
+  </si>
+  <si>
+    <t>Role angezeit wird</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,20 +239,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -301,35 +320,360 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -346,6 +690,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,150 +993,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0898466-D973-4392-B5CB-258D34DDA08A}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="137.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="C17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="37"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+      <c r="C34" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Stakeholderanalyse - v2.xlsx
+++ b/Stakeholderanalyse - v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B347A9F-6205-4CAA-819C-F630D0627A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D655E0-E552-41A3-8E13-E6E1E2D1B0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1EC1A410-8258-43E6-AE3C-02DE8233B07A}"/>
   </bookViews>
@@ -590,49 +590,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,36 +614,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,10 +690,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -995,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0898466-D973-4392-B5CB-258D34DDA08A}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,364 +1006,364 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="9" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="29" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="29" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="26" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="28" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="35" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="35" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="35" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="28" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="9" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="9" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="9" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-      <c r="C34" s="34" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="30"/>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1375,42 +1371,53 @@
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="22"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="22"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="22"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
+      <c r="B39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D16"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="A27:A30"/>
@@ -1422,19 +1429,8 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
